--- a/data/P20versusRestIncomeTrendsOHI.xlsx
+++ b/data/P20versusRestIncomeTrendsOHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8484A48B-5EF0-4D16-A1C3-F14ED03864A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BD8F01-E9F6-45D9-B078-831C58AA7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{3B8C9807-3D29-4610-8704-0B4CB37FE4E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{46180498-52C9-4681-AD48-9E9FACC026FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9616CD9D-810B-4BFF-9C9A-421E81AB01DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F99FA0-CED0-466B-A3B8-17042261EDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,7 +277,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EE4C1C-4872-4332-A16B-407128035259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2356A44-4CA1-4697-8498-BBD0AB144787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,7 +335,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F939F02A-2C1F-421D-8E7D-E118458E3C3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBBFFE1-ADD9-483C-976F-698DB529D88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +393,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5251766-001C-4263-BC3C-576F9C57D41C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32459561-7C93-44CF-AD48-C9C001624043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +451,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3B0004-286E-4830-8E0D-F88B01B7B548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8235E193-0E97-44ED-93A4-ABDFC1274D85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586E0687-A560-4B7A-900E-CBDFE593BD3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2428DEC5-842A-4CFA-BAF1-09DC814218F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B236738-B441-4AE2-8254-746A3B2724C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4575C9E-4A04-459E-B30C-66D020D1F598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +625,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E250F4F9-5F49-450F-B229-CEC5A28C5B6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB89AD68-A3EA-4977-90C7-C77E57F0361C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3901EB-D987-4392-809B-5346D8667B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53431AF-DC59-4E3A-A4AE-52B98E3CB3F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +741,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA3637D-70FE-46BE-8381-E43C7E1D6819}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB75A8B6-877A-4B8A-B3E1-94595F1C1815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +799,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97045C29-A71F-4AC0-BB74-AE21D05EC9A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A174921-149E-416A-9C90-0ED8663A2EEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBDD5F9-DF50-49FF-8A84-AB2760F91924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EB085D-0377-4DA6-A92E-D79D6653E041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34365832-2286-476B-B37B-2C41D1D65579}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D462B0E7-290E-4D2E-815B-9A20441A484E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +973,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F482E9F-C533-40CD-B76A-20715962B01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602E571C-C539-4074-8D84-8291E663E377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1031,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4ED2AF-B785-4D2F-8E7D-3AB80AB0FF1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF484C0-2A8E-4AEF-998D-3C664C50FF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C416BE-D189-414C-B484-091C73C7FDCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE04E0A-CA4D-4511-9006-5AE1AABAB6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B8470C-E158-4D65-A6F0-3D348292B598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE69A9A7-5098-410B-BE9A-CF40674A9870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1205,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441D8551-18F7-4449-93E4-B2D4D1EE195C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD37F20-AB6F-47B6-B76C-1A59A209206F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1263,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED833A8-B50E-43D0-88E4-B01267E7450B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D1BA59-42D3-416E-A5EC-1D5007FE198F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AC490D-90FF-4609-8C53-52E7AEAB8F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37AE091-A29C-4516-9A0C-B63C9C38976B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E866B81-2C0C-4B4B-90C8-EE2970417902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A714AD5-A563-4ACB-9255-A95576B0C4A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CF56D0-E2CA-44BF-9B08-4DAC2ADE38F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8F753-1DCD-42CC-B8E7-CD5FA03A36DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EDB1E0-507E-445E-B43E-1B9E1D419B38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD581079-04FD-4DFE-8A6A-AA0BE27CC0A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283E5BB9-2D74-4D7A-A99C-E356892F01F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0F6D9C-C805-4C03-8540-19DB98FA2D31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3939E675-0CB7-4DEE-AD5D-8AB9F324D57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61360429-6EE6-4FEC-852C-CE1CD6B46C61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F30117-3D00-4680-BA7C-E602906E15A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A413A638-7383-4F7B-B1E2-F1BAE070ACA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D010BD3E-A49F-4F7A-B22D-5BA6CCAD2E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6F7476-545E-4904-9156-69973461852E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6937C85C-223A-40F7-9F44-0EE9B194FFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB39D6F-8677-4E42-9E05-866577F55B05}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4F96BC-30CB-4289-88F7-A037AE5A7F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C91ED6-F184-48DD-A656-C704089655DF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6791F492-4CCB-4F5C-B3D9-5E853758D6FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A4009-26AD-4A0A-AF74-FCD3F2A7CBB3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2865,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17467E9B-8E58-4B42-B72B-C6C31F287082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDE78B7-F19B-422F-AD75-E94DAE2C6251}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3103,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92D4D9D-8D40-4EB3-99EC-678D1FE5951E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FADF97-1AA3-4694-80A9-65762D2815A5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3341,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE572CD4-9217-4A93-9158-6515507211B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B210D84B-84A6-4C64-B5EE-93613C3A4625}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3579,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD6BE1-8FB5-4B2E-BF9F-8AD3778A7E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC553EC-C51D-475B-8721-73E6B3F46A94}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3817,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A313E4-B24C-4B0C-A3D7-5620CDD99DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8C2465-A35E-4858-A381-BDF3D4ABBBCE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3977,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C0CEBE-593B-41DF-8F1F-A2B705C8DDD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76FDC0-2C9B-48C9-A3F3-066D7C99C530}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4203,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BAD57A-E4FD-4CD0-BAF6-0C0B6900201C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0FE45-3033-4092-ACF5-F5DE54D5B7E5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4417,7 +4417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A33694-8D35-4509-B00E-6E5960E63D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7865B7-9162-4D43-B959-6A21440CC443}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4655,7 +4655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712854ED-FBC3-4103-A1CB-2DA8A0127FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0430C8A8-60BF-4D81-A9A4-48D114E795BF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4881,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A74DB6D-01C7-4F24-B8A2-C0C10E3DC402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C11806-171F-477F-9FA5-5EC4ED86281B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5AE5C5-AE26-4B00-BBC4-1B402E25FE1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78F0023-9E22-458B-9D93-5BC0B77DD4B9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5357,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CDE891-BD69-479C-8886-48317C038E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3995342-EA99-4A61-8283-2CE13D46497C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5595,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7C0018-4C37-4363-BE43-3B7F29C099C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4D7188-0122-4A19-8FDE-88B66186C154}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5743,7 +5743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A8F02-8ADE-440F-8667-E5B775514B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DFF28-2347-4230-9030-BB30DC888085}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5981,7 +5981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C05637A-F0A1-44BC-B888-79954663A687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90130386-6543-47D2-B2A1-AEE6B1F615B3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6219,7 +6219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60262646-B707-4860-8CC7-BEC61B230A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC6407A-B4C5-4A39-B702-3F1F140D7B38}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E63C0-8AA4-4BC2-AF6A-34BDF6FF6815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC504D87-2508-4CA4-8AD3-8736FC1E8C19}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6683,7 +6683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C93F89-7CF4-4592-A1DA-0047374A41D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5576D75-5001-4308-A379-ABB2A6E14C4A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6831,7 +6831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD4CE2-DD3B-4D75-9ABD-E487FE2F8D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5572C1-7A60-4FAB-83C3-72829A558DCC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7051,7 +7051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC16A59-ABF6-4446-B561-7D4939CF3653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097E87C-BB5F-498F-B959-68D54C595D84}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7199,7 +7199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD63A66-69F1-4AD4-9B2B-740CCC984B0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47720723-802D-4B8E-B6E7-D6A5EF1E6A4E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7353,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D266987-3D8C-4FFD-B86F-02CBBAFDD0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F74915D-E5BF-46B1-9969-1AFC49D483F6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsOHI.xlsx
+++ b/data/P20versusRestIncomeTrendsOHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BD8F01-E9F6-45D9-B078-831C58AA7B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAA1FEC-B6D4-4614-9AD6-C694A8BC368F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{46180498-52C9-4681-AD48-9E9FACC026FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{408509F3-2AEB-49D9-8CF6-E7745EE3C5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F99FA0-CED0-466B-A3B8-17042261EDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A460D4-F93A-408A-B394-829124560259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,7 +277,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2356A44-4CA1-4697-8498-BBD0AB144787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE3BF7C-1F78-4044-B7F2-C1776996F2ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,7 +335,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBBFFE1-ADD9-483C-976F-698DB529D88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24456EE0-9971-4A4B-804C-89963EB6289F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +393,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32459561-7C93-44CF-AD48-C9C001624043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D3E92D-6D19-4909-B470-61383E3D7221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +451,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8235E193-0E97-44ED-93A4-ABDFC1274D85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815EFB8D-F394-464F-95F0-9D7D07B0565D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2428DEC5-842A-4CFA-BAF1-09DC814218F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCA08BF-937F-4E50-A0A6-11FBF05FF0E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4575C9E-4A04-459E-B30C-66D020D1F598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E757CD96-7D85-49B6-8D27-6D9AB96A504E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +625,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB89AD68-A3EA-4977-90C7-C77E57F0361C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEE7234-0638-40CB-8072-B5D93084A8D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53431AF-DC59-4E3A-A4AE-52B98E3CB3F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2ECFCD-3C3C-404F-8ED3-BE2867A52F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +741,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB75A8B6-877A-4B8A-B3E1-94595F1C1815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F783ECCC-FE5A-4C17-B4F0-18B7A0E37B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +799,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A174921-149E-416A-9C90-0ED8663A2EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A52D754-AFA6-4C7D-9D3C-485B8A5EF471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EB085D-0377-4DA6-A92E-D79D6653E041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD67A3CA-EF99-4DFC-BA51-C901CC862C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D462B0E7-290E-4D2E-815B-9A20441A484E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220DA310-71C8-40F5-B328-FD8C74CAA5AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +973,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602E571C-C539-4074-8D84-8291E663E377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D15254-C98F-49C6-937A-1D07FB53466C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1031,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF484C0-2A8E-4AEF-998D-3C664C50FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814C00F5-1349-4A48-A4AA-6CAFAC3F661D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE04E0A-CA4D-4511-9006-5AE1AABAB6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2644DA-33AC-43EE-AFFE-01A7B241DF5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE69A9A7-5098-410B-BE9A-CF40674A9870}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD598E8A-605F-4D2B-8F05-EC7808BBCAFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1205,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD37F20-AB6F-47B6-B76C-1A59A209206F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38BD4DD-F5ED-429C-94E1-722283867BD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1263,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D1BA59-42D3-416E-A5EC-1D5007FE198F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AF7291-DB6F-481A-96AB-986899D9ED0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37AE091-A29C-4516-9A0C-B63C9C38976B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7150829C-75AB-499C-8EC3-293430EA5501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A714AD5-A563-4ACB-9255-A95576B0C4A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974499D6-6105-4FD2-9774-8A66723EB5BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8F753-1DCD-42CC-B8E7-CD5FA03A36DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C58328-36E7-42AA-A957-6EEA6FBBF33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD581079-04FD-4DFE-8A6A-AA0BE27CC0A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674FCA5E-9AD3-4320-8B09-F907BC48AF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0F6D9C-C805-4C03-8540-19DB98FA2D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F308490-287E-43A6-8588-0869C3D08C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61360429-6EE6-4FEC-852C-CE1CD6B46C61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C3708B-7328-43AA-9A99-5F0E9E5B19FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A413A638-7383-4F7B-B1E2-F1BAE070ACA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3BA06-1CCF-44D8-8349-23FFA176A271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6F7476-545E-4904-9156-69973461852E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305E1A4-543A-49FF-9A5B-416400F6BA66}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB39D6F-8677-4E42-9E05-866577F55B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0F952-5DE1-4519-9E93-7B39DE1147D7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C91ED6-F184-48DD-A656-C704089655DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9D820A-0A2C-4617-817A-944589B1A56E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A4009-26AD-4A0A-AF74-FCD3F2A7CBB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9CA292-4144-4541-BAA8-547331F79996}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2865,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDE78B7-F19B-422F-AD75-E94DAE2C6251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2CDFA2-C28C-451C-B5B1-E6F0F880EF61}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3103,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FADF97-1AA3-4694-80A9-65762D2815A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA786D6-A97B-4C36-9DAA-6E0046E88019}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3341,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B210D84B-84A6-4C64-B5EE-93613C3A4625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F5CE8B-18E2-4605-933C-9FD0F2E99171}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3579,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC553EC-C51D-475B-8721-73E6B3F46A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF32AB-82F0-4F6D-8D70-13613E635147}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3817,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8C2465-A35E-4858-A381-BDF3D4ABBBCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D00566-7FB7-4176-A97C-0B33B4EB9F0D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3977,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76FDC0-2C9B-48C9-A3F3-066D7C99C530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F1B24-F5C9-4E43-83E1-4FE3B4C49936}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4203,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0FE45-3033-4092-ACF5-F5DE54D5B7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237FD081-8485-41BE-A3CA-F4CB9B0305EB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4417,7 +4417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7865B7-9162-4D43-B959-6A21440CC443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA6D0C-D365-449C-BF4F-7EA675D427AA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4655,7 +4655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0430C8A8-60BF-4D81-A9A4-48D114E795BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF0F306-2236-46E5-9107-DD0DBF8A95B7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4881,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C11806-171F-477F-9FA5-5EC4ED86281B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A418387-E3A9-4DA3-98B8-F033DC0371B6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78F0023-9E22-458B-9D93-5BC0B77DD4B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99A4F1-2F88-4AAE-8FD4-B1F3F02EE193}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5357,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3995342-EA99-4A61-8283-2CE13D46497C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF1975F-FB79-4305-B007-2B84DA966298}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5595,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4D7188-0122-4A19-8FDE-88B66186C154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F54F9D8-20C3-4294-949E-09E40ABE105F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5743,7 +5743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DFF28-2347-4230-9030-BB30DC888085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EFAED-D11F-48F4-BE25-F9CCB1266041}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5981,7 +5981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90130386-6543-47D2-B2A1-AEE6B1F615B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E70C35-3F6F-4276-817B-E3F993EBC02E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6219,7 +6219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC6407A-B4C5-4A39-B702-3F1F140D7B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B0887-A596-4795-927B-73DED0044306}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC504D87-2508-4CA4-8AD3-8736FC1E8C19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D7022D-DA1C-43A0-8A71-DEFE6990D75F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6683,7 +6683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5576D75-5001-4308-A379-ABB2A6E14C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8CED50-2082-4DAA-9B4C-65AE6D6D11D2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6831,7 +6831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5572C1-7A60-4FAB-83C3-72829A558DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD334B3-E2DB-4F17-88FC-0B40B79B5D24}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7051,7 +7051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097E87C-BB5F-498F-B959-68D54C595D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9F7111-81E9-4485-931A-3F1B7A17C495}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7199,7 +7199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47720723-802D-4B8E-B6E7-D6A5EF1E6A4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7BDCD7-DFDF-43EE-8A27-D5AA2842EE96}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7353,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F74915D-E5BF-46B1-9969-1AFC49D483F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A083AC8C-4361-42CC-9B42-DC7A4449CA4E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
